--- a/Modules/@USB_Xilinx_Jtag_Bridge(FT232HQ)/bom.xlsx
+++ b/Modules/@USB_Xilinx_Jtag_Bridge(FT232HQ)/bom.xlsx
@@ -5,22 +5,33 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Doing\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files_of_zhangyu\Project\KICAD\Modules\@USB_Xilinx_Jtag_Bridge(FT232HQ)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99BA8F7B-EA5F-4F1A-80D1-0AEB926D4C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39CA7842-ABC3-41ED-8AE6-7BA979336C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4455" yWindow="645" windowWidth="16065" windowHeight="10470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bom" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="67">
   <si>
     <t>0.1uF</t>
   </si>
@@ -43,233 +54,212 @@
     <t>J2</t>
   </si>
   <si>
-    <t>Jumper1</t>
-  </si>
-  <si>
     <t>L1</t>
   </si>
   <si>
+    <t>12K</t>
+  </si>
+  <si>
+    <t>10K</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>2K</t>
+  </si>
+  <si>
+    <t>R9</t>
+  </si>
+  <si>
+    <t>3K</t>
+  </si>
+  <si>
+    <t>R10</t>
+  </si>
+  <si>
+    <t>1M</t>
+  </si>
+  <si>
+    <t>20R</t>
+  </si>
+  <si>
+    <t>R12</t>
+  </si>
+  <si>
+    <t>51K</t>
+  </si>
+  <si>
+    <t>R13</t>
+  </si>
+  <si>
+    <t>13K</t>
+  </si>
+  <si>
+    <t>R14</t>
+  </si>
+  <si>
+    <t>41.2K</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>FT232H</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>mp9442</t>
+  </si>
+  <si>
+    <t>Y1</t>
+  </si>
+  <si>
+    <t>12M</t>
+  </si>
+  <si>
+    <t>C1, C2, C5, C7, C9, C10, C12, C14, C15</t>
+  </si>
+  <si>
+    <t>C3, C4</t>
+  </si>
+  <si>
+    <t>C6, C8, C11, C13, C16, C17</t>
+  </si>
+  <si>
+    <t>R4, R5, R6, R7</t>
+  </si>
+  <si>
+    <t>标号</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>值</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>封装</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>0402</t>
+  </si>
+  <si>
+    <t>0402</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB-C16PSMT01</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t>QFN-48</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>93LC56B-I/OT</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOT-23-6</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TSOT-23-8</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2Pin_2.0x1.2mm</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NR3015</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.7uF</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">简牛母座 14pin </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.54mm, 2x7pin</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>0R</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>单价</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>总价</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量/板</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TypeC-16pin</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>R3</t>
-  </si>
-  <si>
-    <t>12K</t>
-  </si>
-  <si>
-    <t>10K</t>
-  </si>
-  <si>
-    <t>R8</t>
-  </si>
-  <si>
-    <t>2K</t>
-  </si>
-  <si>
-    <t>R9</t>
-  </si>
-  <si>
-    <t>3K</t>
-  </si>
-  <si>
-    <t>R10</t>
-  </si>
-  <si>
-    <t>1M</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>R11</t>
-  </si>
-  <si>
-    <t>20R</t>
-  </si>
-  <si>
-    <t>R12</t>
-  </si>
-  <si>
-    <t>51K</t>
-  </si>
-  <si>
-    <t>R13</t>
-  </si>
-  <si>
-    <t>13K</t>
-  </si>
-  <si>
-    <t>R14</t>
-  </si>
-  <si>
-    <t>41.2K</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>FT232H</t>
-  </si>
-  <si>
-    <t>U2</t>
-  </si>
-  <si>
-    <t>U3</t>
-  </si>
-  <si>
-    <t>mp9442</t>
-  </si>
-  <si>
-    <t>MP9442:mp9442</t>
-  </si>
-  <si>
-    <t>Y1</t>
-  </si>
-  <si>
-    <t>12M</t>
-  </si>
-  <si>
-    <t>C1, C2, C5, C7, C9, C10, C12, C14, C15</t>
-  </si>
-  <si>
-    <t>C3, C4</t>
-  </si>
-  <si>
-    <t>C6, C8, C11, C13, C16, C17</t>
-  </si>
-  <si>
-    <t>R4, R5, R6, R7</t>
-  </si>
-  <si>
-    <t>标号</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>载量</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>值</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>封装</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>0402</t>
-  </si>
-  <si>
-    <t>0402</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>元件</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>LED</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>USB-C16PSMT01</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>数量</t>
-  </si>
-  <si>
-    <t>200</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>FT232HQ</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>QFN-48</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>93LC56B-I/OT</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOT-23-6</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>TSOT-23-8</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>2Pin_2.0x1.2mm</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Crystal</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>R</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>L</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>NR3015</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.7uF</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">简牛母座 14pin </t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.54mm, 2x7pin</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>100</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>0R</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>20</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://item.taobao.com/item.htm?spm=a230r.1.14.85.6eeb2e4eHVRF0y&amp;id=626492525858&amp;ns=1&amp;abbucket=6#detail</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>93LCxxBxxOT</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>R0</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -277,7 +267,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -439,7 +429,7 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
@@ -447,11 +437,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <family val="2"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -753,7 +751,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -880,28 +878,34 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="42">
     <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -927,7 +931,6 @@
     <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="42" builtinId="8"/>
     <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
@@ -1259,463 +1262,553 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.375" customWidth="1"/>
-    <col min="3" max="3" width="22.875" customWidth="1"/>
-    <col min="4" max="4" width="23.875" customWidth="1"/>
+    <col min="2" max="2" width="10.375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="17.875" customWidth="1"/>
+    <col min="4" max="4" width="11.375" customWidth="1"/>
     <col min="5" max="5" width="16.375" style="1" customWidth="1"/>
-    <col min="6" max="7" width="13.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.75" customWidth="1"/>
+    <col min="6" max="7" width="13.625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="E1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="2" t="s">
-        <v>48</v>
+      <c r="G1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2">
+        <v>30</v>
+      </c>
+      <c r="B2" s="5">
         <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
-        <v>45</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>65</v>
+        <v>38</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="6">
+        <f>F2*G2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3">
+        <v>31</v>
+      </c>
+      <c r="B3" s="5">
         <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
-        <v>45</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>65</v>
+        <v>38</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" s="6">
+        <f t="shared" ref="H3:H22" si="0">F3*G3</f>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4">
+        <v>32</v>
+      </c>
+      <c r="B4" s="5">
         <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
-        <v>45</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>65</v>
+        <v>38</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
-        <v>46</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>65</v>
+        <v>38</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5">
         <v>1</v>
       </c>
       <c r="C6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>66</v>
+      <c r="F6" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
+        <v>66</v>
+      </c>
+      <c r="B7" s="5">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>71</v>
+        <v>38</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="6">
+        <f>F7*G7</f>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
+        <v>64</v>
+      </c>
+      <c r="B8" s="5">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>50</v>
+        <v>38</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="B9" s="5">
+        <v>4</v>
       </c>
       <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>68</v>
+      <c r="H9" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="B10" s="5">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>65</v>
+        <v>37</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="5">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B11">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>65</v>
+      <c r="F11" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12">
+        <v>14</v>
+      </c>
+      <c r="B12" s="5">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>64</v>
+        <v>37</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13">
+        <v>65</v>
+      </c>
+      <c r="B13" s="5">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>64</v>
+        <v>37</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14">
+        <v>17</v>
+      </c>
+      <c r="B14" s="5">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>64</v>
+        <v>37</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15">
+        <v>19</v>
+      </c>
+      <c r="B15" s="5">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>64</v>
+        <v>37</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H15" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16">
+        <v>21</v>
+      </c>
+      <c r="B16" s="5">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="5">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H17" s="6">
+        <f>F17*G17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="5">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H18" s="6">
+        <f>F18*G18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="5">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
+      <c r="F19" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H19" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="5">
         <v>1</v>
       </c>
-      <c r="C17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18">
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H20" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="5">
         <v>1</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19">
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H21" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="5">
         <v>1</v>
       </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" t="s">
-        <v>72</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="C22" t="s">
         <v>29</v>
       </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="E22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>70</v>
+      <c r="G22" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H22" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="H7" r:id="rId1" location="detail" xr:uid="{C1AD0D80-ECE9-45CD-9201-40C8B4DE7F88}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>